--- a/images/GC_趋势图.xlsx
+++ b/images/GC_趋势图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DS_xiaoxin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C67E0-E667-405C-81AF-ED3B80AE4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{C9C43F4E-1EBC-4164-AE9E-2EF9C4D52FD0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,6 +131,1443 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="244015488"/>
+        <c:axId val="244017408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="244015488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="244017408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244017408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="244015488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1442.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$23:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14420.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="172374272"/>
+        <c:axId val="172376064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="172374272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172376064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172376064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172374272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="35206272"/>
+        <c:axId val="35207808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35206272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35207808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35207808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35206272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stream</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BinaryStream</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NewTonJson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Proto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Proto_json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>68921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="34996608"/>
+        <c:axId val="34999680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="34996608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34999680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34999680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34996608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>357187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>585787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>652462</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>671512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,28 +1859,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C172BD39-9464-4DDE-A8DD-8E3682F654C8}">
-  <dimension ref="B5:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -472,7 +1903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -495,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
@@ -518,7 +1949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>100</v>
       </c>
@@ -541,7 +1972,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000</v>
       </c>
@@ -564,7 +1995,8 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -587,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -610,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10</v>
       </c>
@@ -633,7 +2065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>100</v>
       </c>
@@ -656,7 +2088,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1000</v>
       </c>
@@ -679,7 +2111,8 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -702,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
@@ -725,7 +2158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>10</v>
       </c>
@@ -748,7 +2181,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>100</v>
       </c>
@@ -771,7 +2204,7 @@
         <v>6128</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1000</v>
       </c>
@@ -794,7 +2227,8 @@
         <v>61287</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -817,7 +2251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1</v>
       </c>
@@ -840,7 +2274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>10</v>
       </c>
@@ -863,7 +2297,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>100</v>
       </c>
@@ -886,7 +2320,7 @@
         <v>17644</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1000</v>
       </c>
@@ -909,13 +2343,15 @@
         <v>176280</v>
       </c>
     </row>
+    <row r="38" spans="2:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{B1CBEA22-817F-4B22-B7E8-B6FA610AE7BE}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -931,7 +2367,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{11769F67-407C-41A1-8B53-A18EE807CBF6}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -947,7 +2383,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{F7C6123A-8E8E-47BF-B46E-56FCD04AC380}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -963,7 +2399,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9B3FC4BE-E244-402E-AB7B-EB31B5E5F43D}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -979,7 +2415,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{9BEC0D77-597A-4889-88F3-37FA75F21CBD}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -995,7 +2431,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{F403170F-476B-45C9-A3AA-239E5139B984}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1011,7 +2447,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{42AFC29B-19A0-4D9A-8793-D9A918262B25}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1027,7 +2463,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{81815578-95AD-42DA-B871-2FB376E24E11}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1043,7 +2479,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{74DCDC24-4369-48DF-8AE4-C2DABC55CCD0}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1059,7 +2495,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{69B85797-7F59-4B3D-AD73-0D5F6A77C2A3}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1075,6 +2511,486 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C15:H15</xm:f>
+              <xm:sqref>I15</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C16:H16</xm:f>
+              <xm:sqref>I16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C15:C18</xm:f>
+              <xm:sqref>C19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!D15:D18</xm:f>
+              <xm:sqref>D19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!E15:E18</xm:f>
+              <xm:sqref>E19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!F15:F18</xm:f>
+              <xm:sqref>F19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!G15:G18</xm:f>
+              <xm:sqref>G19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!H15:H18</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C24:H24</xm:f>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C27:H27</xm:f>
+              <xm:sqref>I27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C24:C27</xm:f>
+              <xm:sqref>C28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!D24:D27</xm:f>
+              <xm:sqref>D28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!E24:E27</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!F24:F27</xm:f>
+              <xm:sqref>F28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!G24:G27</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!H24:H27</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C34:H34</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C35:H35</xm:f>
+              <xm:sqref>I35</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C36:H36</xm:f>
+              <xm:sqref>I36</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C37:H37</xm:f>
+              <xm:sqref>I37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C34:C37</xm:f>
+              <xm:sqref>C38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!D34:D37</xm:f>
+              <xm:sqref>D38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!E34:E37</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!F34:F37</xm:f>
+              <xm:sqref>F38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!G34:G37</xm:f>
+              <xm:sqref>G38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!H34:H37</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
